--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-12_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-12_end.xlsx
@@ -616,7 +616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If you need a more suitable metaphor, consider the concept, "life".
+    <t xml:space="preserve">[name="Kal'tsit"]  If you need a more suitable metaphor, consider the concept, 'life'.
 </t>
   </si>
   <si>
